--- a/INTLINE/data/542/KRSE/KOSPI Index - Weekly.xlsx
+++ b/INTLINE/data/542/KRSE/KOSPI Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CPY2"/>
+  <dimension ref="A1:CQC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12699,15 +12699,35 @@
       </c>
       <c r="CPW1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="CPX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CPY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="CPZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="CQA1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CPX1" s="1" t="inlineStr">
+      <c r="CQB1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CPY1" s="1" t="inlineStr">
+      <c r="CQC1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -20100,19 +20120,31 @@
         <v>2739.85</v>
       </c>
       <c r="CPV2" t="n">
-        <v>2733.82</v>
-      </c>
-      <c r="CPW2" t="inlineStr">
+        <v>2700.39</v>
+      </c>
+      <c r="CPW2" t="n">
+        <v>2696.06</v>
+      </c>
+      <c r="CPX2" t="n">
+        <v>2704.71</v>
+      </c>
+      <c r="CPY2" t="n">
+        <v>2695.05</v>
+      </c>
+      <c r="CPZ2" t="n">
+        <v>2678.09</v>
+      </c>
+      <c r="CQA2" t="inlineStr">
         <is>
           <t>KOSPI</t>
         </is>
       </c>
-      <c r="CPX2" t="inlineStr">
+      <c r="CQB2" t="inlineStr">
         <is>
           <t>KOSPI Composite Stock Price Index, Close Price</t>
         </is>
       </c>
-      <c r="CPY2" t="inlineStr">
+      <c r="CQC2" t="inlineStr">
         <is>
           <t>Index: 1972.01.04=100</t>
         </is>

--- a/INTLINE/data/542/KRSE/KOSPI Index - Weekly.xlsx
+++ b/INTLINE/data/542/KRSE/KOSPI Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQJ2"/>
+  <dimension ref="A1:CQK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12754,15 +12754,20 @@
       </c>
       <c r="CQH1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="CQI1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CQI1" s="1" t="inlineStr">
+      <c r="CQJ1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CQJ1" s="1" t="inlineStr">
+      <c r="CQK1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -20188,19 +20193,22 @@
         <v>2440.93</v>
       </c>
       <c r="CQG2" t="n">
-        <v>2365.52</v>
-      </c>
-      <c r="CQH2" t="inlineStr">
+        <v>2366.6</v>
+      </c>
+      <c r="CQH2" t="n">
+        <v>2401.92</v>
+      </c>
+      <c r="CQI2" t="inlineStr">
         <is>
           <t>KOSPI</t>
         </is>
       </c>
-      <c r="CQI2" t="inlineStr">
+      <c r="CQJ2" t="inlineStr">
         <is>
           <t>KOSPI Composite Stock Price Index, Close Price</t>
         </is>
       </c>
-      <c r="CQJ2" t="inlineStr">
+      <c r="CQK2" t="inlineStr">
         <is>
           <t>Index: 1972.01.04=100</t>
         </is>
